--- a/fe.xlsx
+++ b/fe.xlsx
@@ -14,12 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>hello</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,18 +363,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
